--- a/biology/Médecine/Valéria_Milewski/Valéria_Milewski.xlsx
+++ b/biology/Médecine/Valéria_Milewski/Valéria_Milewski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Val%C3%A9ria_Milewski</t>
+          <t>Valéria_Milewski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Valéria Milewski, docteure en sciences du langage, a créé la biographie hospitalière en septembre 2007 dans le service d’oncologie-hématologie du centre hospitalier de Chartres.
 En 2010, elle fonde l’association Passeur de mots, passeur d’histoires, rebaptisée Passeur de mots et d'histoires en 2022.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Val%C3%A9ria_Milewski</t>
+          <t>Valéria_Milewski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>La Biographie hospitalière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 2007, Valéria Milewski, directrice générale de l’association Passeur de mots et d'histoires, continue d’œuvrer pour déployer la Biographie hospitalière en France et à l’international.
 Son objectif : faire que cette démarche soit proposée à davantage de personnes gravement malades et/ou en situation palliative.
 Ces dernières années, en tant que fondatrice de la démarche, Valéria Milewski joue un rôle décisif dans la mise en lumière de la biographie hospitalière. Elle a participé à plus de 200 conférences en France et à l’international, une centaine d’émissions TV et radio, et a témoigné auprès de la presse, donnant lieu à la publication d’une centaine d’articles. Elle a également contribué à la rédaction d’une dizaine d’articles scientifiques et de publications universitaires.
-En 2017, elle organise la Première Journée Nationale de la Biographie hospitalière au Musée d’Histoire de la Médecine Université de Paris Descartes[1], permettant de restituer les résultats de la première recherche qualitative, dans le prolongement de laquelle elle s’engage dans la conduite d’une thèse de doctorat.
-Aujourd’hui, elle est le contact et la cheffe de file de la biographie hospitalière auprès du ministère de la Santé[2]. À leurs côtés, elle travaille en vue d’une reconnaissance de la démarche comme un soin.
+En 2017, elle organise la Première Journée Nationale de la Biographie hospitalière au Musée d’Histoire de la Médecine Université de Paris Descartes, permettant de restituer les résultats de la première recherche qualitative, dans le prolongement de laquelle elle s’engage dans la conduite d’une thèse de doctorat.
+Aujourd’hui, elle est le contact et la cheffe de file de la biographie hospitalière auprès du ministère de la Santé. À leurs côtés, elle travaille en vue d’une reconnaissance de la démarche comme un soin.
 À ce jour, la biographie hospitalière fait partie du plan décennal « soins palliatifs, prise en charge de la douleur et accompagnement de la fin de vie en France » 2024 – 2034
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Val%C3%A9ria_Milewski</t>
+          <t>Valéria_Milewski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Thèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 14 décembre 2020, Valéria Milewski a soutenu publiquement sa thèse intitulée : « Tenir parole et rendre parole : le genre de la biographie hospitalière ou la « carebiographie® » sous la direction de Stéphane Bikialo (professeur de langue et de littérature française, Université de Poitiers) et en présence du jury composé de Régis Aubry, médecin des hôpitaux, professeur associé de médecine palliative, CRHU Besançon, membre du Comité Consultatif National d’Éthique (CCNE), Anna Kieliszczyk, professeure en sciences du langage, Université de Varsovie, Sabine Pétillon, chargée de recherche au CNRS, MSHS Paris-Nanterre, Gaston Pineau, professeur honoraire en sciences de l’éducation et de la formation, Université de Tours, chercheur émérite à l’Université du Québec, Montréal, Catherine Rannoux, professeure de linguistique et stylistique, Université de Poitiers (mettre les liens existants).
 La thèse de Valéria Milewski présente la biographie hospitalière comme la jonction entre le care et le cure, initiant un mouvement plus large. En effet, la carebiographie prend source dans le care. L’éthique du care (autrement appelée éthique de la sollicitude) prend en charge la vulnérabilité commune et assume l’interdépendance entre les hommes. Son effet principal est d’offrir davantage d’autonomie d’actions aux personnes vulnérables. Avec l’aide du biographe, la personne gravement malade participe activement à sa propre expérience. Il peut retisser le fil de son histoire.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Val%C3%A9ria_Milewski</t>
+          <t>Valéria_Milewski</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Formatrice</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Valéria Milewski est chargée de cours à l’Université Paris Ouest Nanterre la Défense, en DU Linguistique Clinique (approches multimodales de la communication), à Université Catholique de Lyon, anime des Master Class et forme les futurs biographes hospitaliers.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Val%C3%A9ria_Milewski</t>
+          <t>Valéria_Milewski</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Conférences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Afin de faire connaître la biographie au plus grand nombre, dans le milieu médical, universitaire, artistique, etc. Valéria Milewski participe très régulièrement à des conférences partout en France et à l'étranger.
 </t>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Val%C3%A9ria_Milewski</t>
+          <t>Valéria_Milewski</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fanny Rinck et Valéria Milewski, Récit de soi face à la maladie grave, Lambert Lucas, juin 2014 (lire en ligne)
 Sophie Bobbé et Valéria Milewski, « Biographie hospitalière », Vocabulaire des histoires de vie et de la recherche biographique, Christine Delory-Momberger éd.,‎ 2019, p. 295-297 (lire en ligne)</t>
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Val%C3%A9ria_Milewski</t>
+          <t>Valéria_Milewski</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,7 +695,9 @@
           <t>Radio et télévision</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>« Écrire le récit de sa vie pour ses proches - Passeur de mots », France 2, mille et une vies,‎ 19 janvier 2017 (lire en ligne)
 « Valéria sauve la mémoire des malades condamnés », Nova,‎ 3 janvier 2023 (lire en ligne)
